--- a/TEST/TEST_통합관리문서1206.xlsx
+++ b/TEST/TEST_통합관리문서1206.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home_1\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E7D0F11-AB27-4F1E-815D-A87318E1E653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E73C92-4D7A-430B-B8FB-8491FCEECE58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Case_API" sheetId="3" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="313">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1313,6 +1313,273 @@
   </si>
   <si>
     <t>퍼스널리티별 가중치 카테고리 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[숙박,2,있음,two,친척,-60000,온천/스파,여,26,미혼]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올바른 값을 입력해주세요(총 예산,동행자 정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올바른 값을 입력해주세요(총 예산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 3</t>
+  </si>
+  <si>
+    <t>SC 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 9</t>
+  </si>
+  <si>
+    <t>SC 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sc 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC -3</t>
+  </si>
+  <si>
+    <t>TC -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC -4</t>
+  </si>
+  <si>
+    <t>TC -5</t>
+  </si>
+  <si>
+    <t>TC -6</t>
+  </si>
+  <si>
+    <t>TC -7</t>
+  </si>
+  <si>
+    <t>TC -8</t>
+  </si>
+  <si>
+    <t>TC -9</t>
+  </si>
+  <si>
+    <t>TC -10</t>
+  </si>
+  <si>
+    <t>TC -11</t>
+  </si>
+  <si>
+    <t>TC -12</t>
+  </si>
+  <si>
+    <t>TC -13</t>
+  </si>
+  <si>
+    <t>TC - 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC - 15</t>
+  </si>
+  <si>
+    <t>TC - 16</t>
+  </si>
+  <si>
+    <t>TC - 17</t>
+  </si>
+  <si>
+    <t>TC - 18</t>
+  </si>
+  <si>
+    <t>TC - 19</t>
+  </si>
+  <si>
+    <t>TC - 20</t>
+  </si>
+  <si>
+    <t>TC - 21</t>
+  </si>
+  <si>
+    <t>TC - 22</t>
+  </si>
+  <si>
+    <t>TC - 23</t>
+  </si>
+  <si>
+    <t>TC - 24</t>
+  </si>
+  <si>
+    <t>TC - 25</t>
+  </si>
+  <si>
+    <t>TC - 26</t>
+  </si>
+  <si>
+    <t>TC - 27</t>
+  </si>
+  <si>
+    <t>TC - 28</t>
+  </si>
+  <si>
+    <t>TC - 29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC - 30</t>
+  </si>
+  <si>
+    <t>TC - 31</t>
+  </si>
+  <si>
+    <t>TC - 32</t>
+  </si>
+  <si>
+    <t>TC - 33</t>
+  </si>
+  <si>
+    <t>TC - 34</t>
+  </si>
+  <si>
+    <t>AF1 - 유효하지 않은 값을 입력했을 경우</t>
+  </si>
+  <si>
+    <t>AF1 - 유효하지 않은 값을 입력했을 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연속의 나' 퍼스널리티 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATURE가 가장 많이 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동적인' 퍼스널리티 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPERIENCE, FESTIVAL, REPORTS가 가장 많이 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화생활' 퍼스널리티 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CULTURE가 가장 많이 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족여행' 퍼스널리티 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HISTORY, EXPERIENCE, CULTURE, FESTIVAL가 가장 많이 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최하위 가중치 카테고리 게시물들 좋아요 클릭 후 새로고침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 카테고리 게시물의 비중 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요가 없는 게시물의 순서가 조회수 순으로 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물에 즐겨찾기 등록 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시물의 즐겨찾기 버튼 활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1457,7 +1724,14 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8B8B"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1483,10 +1757,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{FC3F622B-20B2-4F59-83DB-2A3146E26C41}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8B8B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1874,7 +2153,7 @@
   <dimension ref="A3:M76"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3466,19 +3745,19 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="36.58203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
     <col min="5" max="5" width="38.75" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="73.58203125" customWidth="1"/>
+    <col min="7" max="7" width="46.83203125" customWidth="1"/>
+    <col min="8" max="8" width="42.58203125" customWidth="1"/>
     <col min="9" max="9" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3512,12 +3791,18 @@
       </c>
     </row>
     <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
       <c r="B2" t="s">
         <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>157</v>
       </c>
+      <c r="E2" t="s">
+        <v>263</v>
+      </c>
       <c r="F2" t="s">
         <v>162</v>
       </c>
@@ -3532,12 +3817,18 @@
       </c>
     </row>
     <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
       <c r="B3" t="s">
         <v>156</v>
       </c>
       <c r="C3" t="s">
         <v>157</v>
       </c>
+      <c r="E3" t="s">
+        <v>265</v>
+      </c>
       <c r="F3" t="s">
         <v>139</v>
       </c>
@@ -3552,12 +3843,18 @@
       </c>
     </row>
     <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
       <c r="B4" t="s">
         <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>163</v>
       </c>
+      <c r="E4" t="s">
+        <v>264</v>
+      </c>
       <c r="F4" t="s">
         <v>164</v>
       </c>
@@ -3566,183 +3863,293 @@
       </c>
     </row>
     <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>243</v>
+      </c>
       <c r="B5" t="s">
         <v>156</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
       </c>
+      <c r="D5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" t="s">
+        <v>274</v>
+      </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" t="s">
         <v>158</v>
       </c>
-      <c r="H5" t="s">
-        <v>166</v>
-      </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
       <c r="B6" t="s">
         <v>156</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
       </c>
+      <c r="D6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" t="s">
+        <v>275</v>
+      </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
       <c r="B7" t="s">
         <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
       </c>
+      <c r="D7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" t="s">
+        <v>266</v>
+      </c>
       <c r="F7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="I7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>244</v>
+      </c>
       <c r="B8" t="s">
         <v>156</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
       </c>
+      <c r="D8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" t="s">
+        <v>267</v>
+      </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
         <v>158</v>
       </c>
       <c r="I8" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>243</v>
+      </c>
       <c r="B9" t="s">
         <v>156</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
       </c>
+      <c r="D9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" t="s">
+        <v>268</v>
+      </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
         <v>158</v>
       </c>
       <c r="I9" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>243</v>
+      </c>
       <c r="B10" t="s">
         <v>156</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
       </c>
+      <c r="D10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" t="s">
+        <v>269</v>
+      </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H10" t="s">
         <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>243</v>
+      </c>
       <c r="B11" t="s">
         <v>156</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
       </c>
+      <c r="D11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" t="s">
+        <v>270</v>
+      </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H11" t="s">
         <v>158</v>
       </c>
       <c r="I11" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>243</v>
+      </c>
       <c r="B12" t="s">
         <v>156</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
       </c>
+      <c r="D12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E12" t="s">
+        <v>271</v>
+      </c>
       <c r="F12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H12" t="s">
         <v>158</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>243</v>
+      </c>
       <c r="B13" t="s">
         <v>156</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
       </c>
+      <c r="D13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" t="s">
+        <v>272</v>
+      </c>
       <c r="F13" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H13" t="s">
         <v>158</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="7:7">
@@ -3750,6 +4157,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I17:I1048576 I1:I14">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:C7 A9 A11 A13 A5 F7:I7">
+    <cfRule type="containsText" priority="2" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",A5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8 A10 A12 A14 A6">
+    <cfRule type="containsText" priority="1" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",A6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
@@ -3765,8 +4187,8 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3774,10 +4196,10 @@
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="36.58203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="38.75" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="40.4140625" customWidth="1"/>
+    <col min="7" max="7" width="40.5" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="12.58203125" customWidth="1"/>
   </cols>
@@ -3812,12 +4234,18 @@
       </c>
     </row>
     <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
       <c r="B2" t="s">
         <v>217</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>224</v>
       </c>
+      <c r="E2" t="s">
+        <v>276</v>
+      </c>
       <c r="G2" s="13" t="s">
         <v>225</v>
       </c>
@@ -3829,12 +4257,18 @@
       </c>
     </row>
     <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
       <c r="B3" t="s">
         <v>217</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>226</v>
       </c>
+      <c r="E3" t="s">
+        <v>277</v>
+      </c>
       <c r="F3" s="13" t="s">
         <v>227</v>
       </c>
@@ -3849,12 +4283,18 @@
       </c>
     </row>
     <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
       <c r="B4" t="s">
         <v>217</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>230</v>
       </c>
+      <c r="E4" t="s">
+        <v>278</v>
+      </c>
       <c r="F4" s="13" t="s">
         <v>231</v>
       </c>
@@ -3869,12 +4309,18 @@
       </c>
     </row>
     <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>248</v>
+      </c>
       <c r="B5" t="s">
         <v>217</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>233</v>
       </c>
+      <c r="E5" t="s">
+        <v>279</v>
+      </c>
       <c r="F5" t="s">
         <v>234</v>
       </c>
@@ -3889,76 +4335,178 @@
       </c>
     </row>
     <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
       <c r="B6" t="s">
         <v>193</v>
       </c>
       <c r="C6" t="s">
         <v>194</v>
       </c>
+      <c r="E6" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>251</v>
+      </c>
       <c r="B7" t="s">
         <v>193</v>
       </c>
       <c r="C7" t="s">
         <v>237</v>
       </c>
+      <c r="E7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>251</v>
+      </c>
       <c r="B8" t="s">
         <v>193</v>
       </c>
       <c r="C8" t="s">
         <v>237</v>
       </c>
+      <c r="E8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>250</v>
+      </c>
       <c r="B9" t="s">
         <v>193</v>
       </c>
       <c r="C9" t="s">
         <v>237</v>
       </c>
+      <c r="E9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
       <c r="B10" t="s">
         <v>193</v>
       </c>
       <c r="C10" t="s">
         <v>237</v>
       </c>
+      <c r="E10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="G10" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>252</v>
+      </c>
       <c r="B11" t="s">
         <v>193</v>
       </c>
       <c r="C11" t="s">
         <v>195</v>
       </c>
+      <c r="E11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>253</v>
+      </c>
       <c r="B12" t="s">
         <v>193</v>
       </c>
       <c r="C12" t="s">
         <v>196</v>
       </c>
+      <c r="E12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" t="s">
+        <v>309</v>
+      </c>
+      <c r="G12" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>254</v>
+      </c>
       <c r="B13" t="s">
         <v>193</v>
       </c>
       <c r="C13" t="s">
         <v>197</v>
       </c>
+      <c r="E13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" t="s">
+        <v>311</v>
+      </c>
+      <c r="G13" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" t="s">
+        <v>312</v>
+      </c>
+      <c r="I13" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>255</v>
+      </c>
       <c r="B14" t="s">
         <v>193</v>
       </c>
       <c r="C14" t="s">
         <v>198</v>
       </c>
+      <c r="E14" t="s">
+        <v>288</v>
+      </c>
       <c r="F14" t="s">
         <v>199</v>
       </c>
@@ -3973,12 +4521,18 @@
       </c>
     </row>
     <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>256</v>
+      </c>
       <c r="B15" t="s">
         <v>217</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>218</v>
       </c>
+      <c r="E15" t="s">
+        <v>289</v>
+      </c>
       <c r="F15" s="13" t="s">
         <v>219</v>
       </c>
@@ -3993,11 +4547,17 @@
       </c>
     </row>
     <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>257</v>
+      </c>
       <c r="B16" t="s">
         <v>217</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>221</v>
+      </c>
+      <c r="E16" t="s">
+        <v>290</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>222</v>
@@ -4033,7 +4593,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4043,8 +4603,8 @@
     <col min="3" max="3" width="36.58203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="38.75" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="50.58203125" customWidth="1"/>
+    <col min="7" max="7" width="58.1640625" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="12.58203125" customWidth="1"/>
   </cols>
@@ -4079,12 +4639,18 @@
       </c>
     </row>
     <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
       <c r="B2" t="s">
         <v>201</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
       </c>
+      <c r="E2" t="s">
+        <v>291</v>
+      </c>
       <c r="F2" t="s">
         <v>199</v>
       </c>
@@ -4093,6 +4659,9 @@
       </c>
     </row>
     <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>258</v>
+      </c>
       <c r="B3" t="s">
         <v>201</v>
       </c>
@@ -4102,6 +4671,9 @@
       <c r="D3" t="s">
         <v>204</v>
       </c>
+      <c r="E3" t="s">
+        <v>292</v>
+      </c>
       <c r="F3" t="s">
         <v>199</v>
       </c>
@@ -4110,12 +4682,18 @@
       </c>
     </row>
     <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>259</v>
+      </c>
       <c r="B4" t="s">
         <v>201</v>
       </c>
       <c r="C4" t="s">
         <v>206</v>
       </c>
+      <c r="E4" t="s">
+        <v>293</v>
+      </c>
       <c r="F4" t="s">
         <v>207</v>
       </c>
@@ -4124,12 +4702,18 @@
       </c>
     </row>
     <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
       <c r="B5" t="s">
         <v>201</v>
       </c>
       <c r="C5" t="s">
         <v>209</v>
       </c>
+      <c r="E5" t="s">
+        <v>294</v>
+      </c>
       <c r="F5" t="s">
         <v>210</v>
       </c>
@@ -4138,12 +4722,18 @@
       </c>
     </row>
     <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
       <c r="B6" t="s">
         <v>201</v>
       </c>
       <c r="C6" t="s">
         <v>214</v>
       </c>
+      <c r="E6" t="s">
+        <v>295</v>
+      </c>
       <c r="F6" t="s">
         <v>212</v>
       </c>
@@ -4152,11 +4742,17 @@
       </c>
     </row>
     <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>262</v>
+      </c>
       <c r="B7" t="s">
         <v>201</v>
       </c>
       <c r="C7" t="s">
         <v>215</v>
+      </c>
+      <c r="E7" t="s">
+        <v>296</v>
       </c>
       <c r="F7" t="s">
         <v>216</v>
@@ -4179,8 +4775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="C1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
